--- a/data/trans_bre/P16B10-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Clase-trans_bre.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 0,0</t>
+          <t>-26,96; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 0,0</t>
+          <t>-26,96; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 2,2</t>
+          <t>-20,44; 2,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 2,25</t>
+          <t>-20,67; 2,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 13,58</t>
+          <t>-7,18; 13,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-14,83; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 15,9</t>
+          <t>-7,2; 16,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 0,0</t>
+          <t>-14,83; 0,0</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,22</t>
+          <t>-5,64; 1,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,0</t>
+          <t>-3,73; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,23</t>
+          <t>-5,67; 1,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,0</t>
+          <t>-3,73; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B10-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
